--- a/DateBase/orders/Nha Thu_2025-12-18.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-18.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>834_海芋黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014126665510151041035522320</v>
+        <v>014126665510151041035522322</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-18.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,258 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>332_熊尾草_bear tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">553_嘉兰百合
+multi-colors_ gloriosa_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +920,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014126665510151041035522322</v>
+        <v>014126665510151041035522322101010101058201055552010101010101030101822101110105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-18.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-18.xlsx
@@ -922,6 +922,9 @@
       <c r="G2" t="str">
         <v>014126665510151041035522322101010101058201055552010101010101030101822101110105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
